--- a/curation/LCD-batch3.xlsx
+++ b/curation/LCD-batch3.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\Chemistry\Lisa Carina Dollhopf\Flavi project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tfb64483/Data/RdRp_FFF/curation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{6786D312-84E1-4E61-94F7-482B24986E46}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A83182B-C4D5-2149-9023-9A0351AE8462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27690" windowHeight="12450"/>
+    <workbookView xWindow="22020" yWindow="3060" windowWidth="43840" windowHeight="33100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Retro-OK-batch3-2024-12-17-A-Li" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Retro-OK-batch3-2024-12-17-A-Li'!$A$2:$X$60</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="327">
   <si>
     <t>https://fragalysis.diamond.ac.uk/viewer/react/projects/496/362</t>
   </si>
@@ -64,9 +67,6 @@
     <t>fragmenstein_error</t>
   </si>
   <si>
-    <t>exports</t>
-  </si>
-  <si>
     <t>original ID</t>
   </si>
   <si>
@@ -88,12 +88,6 @@
     <t>inspiration_3</t>
   </si>
   <si>
-    <t>green</t>
-  </si>
-  <si>
-    <t>green-text</t>
-  </si>
-  <si>
     <t>C[C@@H](O)CNC(=O)Nc1cccc2cc[nH]c12</t>
   </si>
   <si>
@@ -115,12 +109,6 @@
     <t>None</t>
   </si>
   <si>
-    <t>['/opt/xchem-fragalysis-2/maxwin/BulkDock/OUTPUTS/RdRp_knitwork_green_site_rna_tunnel_impure_split4000_batch008_220459.sdf'</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> '/opt/xchem-fragalysis-2/maxwin/BulkDock/OUTPUTS/RdRp_knitwork_green_site_rna_tunnel_impure_fragalysis.sdf']</t>
-  </si>
-  <si>
     <t>XYRDJRCBUAYREB-MRVPVSSYSA-N</t>
   </si>
   <si>
@@ -139,9 +127,6 @@
     <t>z0211a</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>C[C@H](O)CNC(=O)Nc1cccc2cccnc12</t>
   </si>
   <si>
@@ -154,12 +139,6 @@
     <t>/opt/xchem-fragalysis-2/maxwin/BulkDock/SCRATCH/217075/C33434-P102</t>
   </si>
   <si>
-    <t>['/opt/xchem-fragalysis-2/maxwin/BulkDock/OUTPUTS/RdRp_knitwork_green_site_rna_tunnel_pure_split4000_batch004_217075.sdf'</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> '/opt/xchem-fragalysis-2/maxwin/BulkDock/OUTPUTS/RdRp_knitwork_green_site_rna_tunnel_pure_fragalysis.sdf']</t>
-  </si>
-  <si>
     <t>SHENAZADMNUPGS-VIFPVBQESA-N</t>
   </si>
   <si>
@@ -184,9 +163,6 @@
     <t>/opt/xchem-fragalysis-2/maxwin/BulkDock/SCRATCH/220453/C29852-P136</t>
   </si>
   <si>
-    <t>['/opt/xchem-fragalysis-2/maxwin/BulkDock/OUTPUTS/RdRp_knitwork_green_site_rna_tunnel_impure_split4000_batch002_220453.sdf'</t>
-  </si>
-  <si>
     <t>QVGDSEZSJSHRTO-UHFFFAOYSA-N</t>
   </si>
   <si>
@@ -211,9 +187,6 @@
     <t>/opt/xchem-fragalysis-2/maxwin/BulkDock/SCRATCH/220470/C27764-P121</t>
   </si>
   <si>
-    <t>['/opt/xchem-fragalysis-2/maxwin/BulkDock/OUTPUTS/RdRp_knitwork_green_site_rna_tunnel_impure_split4000_batch019_220470.sdf'</t>
-  </si>
-  <si>
     <t>XULLBNLRUDZXGS-UHFFFAOYSA-N</t>
   </si>
   <si>
@@ -250,9 +223,6 @@
     <t>/opt/xchem-fragalysis-2/maxwin/BulkDock/SCRATCH/220467/C43135-P82</t>
   </si>
   <si>
-    <t>['/opt/xchem-fragalysis-2/maxwin/BulkDock/OUTPUTS/RdRp_knitwork_green_site_rna_tunnel_impure_split4000_batch016_220467.sdf'</t>
-  </si>
-  <si>
     <t>PGVYGILCFWWCGJ-CPCISQLKSA-N</t>
   </si>
   <si>
@@ -283,9 +253,6 @@
     <t>/opt/xchem-fragalysis-2/maxwin/BulkDock/SCRATCH/220463/C43832-P136</t>
   </si>
   <si>
-    <t>['/opt/xchem-fragalysis-2/maxwin/BulkDock/OUTPUTS/RdRp_knitwork_green_site_rna_tunnel_impure_split4000_batch012_220463.sdf'</t>
-  </si>
-  <si>
     <t>MZQFGNORTTVTDF-UHFFFAOYSA-N</t>
   </si>
   <si>
@@ -358,9 +325,6 @@
     <t>/opt/xchem-fragalysis-2/maxwin/BulkDock/SCRATCH/220468/C34583-P120</t>
   </si>
   <si>
-    <t>['/opt/xchem-fragalysis-2/maxwin/BulkDock/OUTPUTS/RdRp_knitwork_green_site_rna_tunnel_impure_split4000_batch017_220468.sdf'</t>
-  </si>
-  <si>
     <t>RMDDLTVCDWQPGN-AWEZNQCLSA-N</t>
   </si>
   <si>
@@ -385,9 +349,6 @@
     <t>/opt/xchem-fragalysis-2/maxwin/BulkDock/SCRATCH/220454/C55410-P88</t>
   </si>
   <si>
-    <t>['/opt/xchem-fragalysis-2/maxwin/BulkDock/OUTPUTS/RdRp_knitwork_green_site_rna_tunnel_impure_split4000_batch003_220454.sdf'</t>
-  </si>
-  <si>
     <t>FIYMFYFGSCJGHI-UHFFFAOYSA-N</t>
   </si>
   <si>
@@ -442,9 +403,6 @@
     <t>/opt/xchem-fragalysis-2/maxwin/BulkDock/SCRATCH/220452/C61386-P100</t>
   </si>
   <si>
-    <t>['/opt/xchem-fragalysis-2/maxwin/BulkDock/OUTPUTS/RdRp_knitwork_green_site_rna_tunnel_impure_split4000_batch001_220452.sdf'</t>
-  </si>
-  <si>
     <t>KSLLTEVDKMOHSW-KRWDZBQOSA-N</t>
   </si>
   <si>
@@ -469,9 +427,6 @@
     <t>/opt/xchem-fragalysis-2/maxwin/BulkDock/SCRATCH/220464/C43742-P150</t>
   </si>
   <si>
-    <t>['/opt/xchem-fragalysis-2/maxwin/BulkDock/OUTPUTS/RdRp_knitwork_green_site_rna_tunnel_impure_split4000_batch013_220464.sdf'</t>
-  </si>
-  <si>
     <t>VWFMTHAJPOZZPN-CYBMUJFWSA-N</t>
   </si>
   <si>
@@ -556,9 +511,6 @@
     <t>/opt/xchem-fragalysis-2/maxwin/BulkDock/SCRATCH/220461/C28628-P86</t>
   </si>
   <si>
-    <t>['/opt/xchem-fragalysis-2/maxwin/BulkDock/OUTPUTS/RdRp_knitwork_green_site_rna_tunnel_impure_split4000_batch010_220461.sdf'</t>
-  </si>
-  <si>
     <t>DHXCDLUKFAKLSY-UHFFFAOYSA-N</t>
   </si>
   <si>
@@ -595,9 +547,6 @@
     <t>/opt/xchem-fragalysis-2/maxwin/BulkDock/SCRATCH/220458/C61134-P3</t>
   </si>
   <si>
-    <t>['/opt/xchem-fragalysis-2/maxwin/BulkDock/OUTPUTS/RdRp_knitwork_green_site_rna_tunnel_impure_split4000_batch007_220458.sdf'</t>
-  </si>
-  <si>
     <t>ZOPZYWPRKRGGTC-UHFFFAOYSA-N</t>
   </si>
   <si>
@@ -640,9 +589,6 @@
     <t>/opt/xchem-fragalysis-2/maxwin/BulkDock/SCRATCH/220455/C28301-P104</t>
   </si>
   <si>
-    <t>['/opt/xchem-fragalysis-2/maxwin/BulkDock/OUTPUTS/RdRp_knitwork_green_site_rna_tunnel_impure_split4000_batch004_220455.sdf'</t>
-  </si>
-  <si>
     <t>SEXBZMJMGRUWGS-UHFFFAOYSA-N</t>
   </si>
   <si>
@@ -763,9 +709,6 @@
     <t>/opt/xchem-fragalysis-2/maxwin/BulkDock/SCRATCH/220460/C49938-P136</t>
   </si>
   <si>
-    <t>['/opt/xchem-fragalysis-2/maxwin/BulkDock/OUTPUTS/RdRp_knitwork_green_site_rna_tunnel_impure_split4000_batch009_220460.sdf'</t>
-  </si>
-  <si>
     <t>UFFLSBNXFSNCOZ-UHFFFAOYSA-N</t>
   </si>
   <si>
@@ -799,9 +742,6 @@
     <t>/opt/xchem-fragalysis-2/maxwin/BulkDock/SCRATCH/220465/C23289-P104</t>
   </si>
   <si>
-    <t>['/opt/xchem-fragalysis-2/maxwin/BulkDock/OUTPUTS/RdRp_knitwork_green_site_rna_tunnel_impure_split4000_batch014_220465.sdf'</t>
-  </si>
-  <si>
     <t>ZTHISXNUAOFTJB-SNVBAGLBSA-N</t>
   </si>
   <si>
@@ -835,9 +775,6 @@
     <t>/opt/xchem-fragalysis-2/maxwin/BulkDock/SCRATCH/220456/C36233-P1</t>
   </si>
   <si>
-    <t>['/opt/xchem-fragalysis-2/maxwin/BulkDock/OUTPUTS/RdRp_knitwork_green_site_rna_tunnel_impure_split4000_batch005_220456.sdf'</t>
-  </si>
-  <si>
     <t>KJOJCYOZXQMGKF-UHFFFAOYSA-N</t>
   </si>
   <si>
@@ -922,9 +859,6 @@
     <t>/opt/xchem-fragalysis-2/maxwin/BulkDock/SCRATCH/220462/C20299-P104</t>
   </si>
   <si>
-    <t>['/opt/xchem-fragalysis-2/maxwin/BulkDock/OUTPUTS/RdRp_knitwork_green_site_rna_tunnel_impure_split4000_batch011_220462.sdf'</t>
-  </si>
-  <si>
     <t>OUADHXQUGPVFPL-UHFFFAOYSA-N</t>
   </si>
   <si>
@@ -967,9 +901,6 @@
     <t>/opt/xchem-fragalysis-2/maxwin/BulkDock/SCRATCH/220466/C29512-P105</t>
   </si>
   <si>
-    <t>['/opt/xchem-fragalysis-2/maxwin/BulkDock/OUTPUTS/RdRp_knitwork_green_site_rna_tunnel_impure_split4000_batch015_220466.sdf'</t>
-  </si>
-  <si>
     <t>BMPWZIURAKPFIJ-UHFFFAOYSA-N</t>
   </si>
   <si>
@@ -1054,9 +985,6 @@
     <t>/opt/xchem-fragalysis-2/maxwin/BulkDock/SCRATCH/220457/C60663-P218</t>
   </si>
   <si>
-    <t>['/opt/xchem-fragalysis-2/maxwin/BulkDock/OUTPUTS/RdRp_knitwork_green_site_rna_tunnel_impure_split4000_batch006_220457.sdf'</t>
-  </si>
-  <si>
     <t>WNOQDDCSSLWEEK-UHFFFAOYSA-N</t>
   </si>
   <si>
@@ -1064,12 +992,24 @@
   </si>
   <si>
     <t>3vws-a</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>YES-text</t>
+  </si>
+  <si>
+    <t>INTERESTING</t>
+  </si>
+  <si>
+    <t>INTERESTING-text</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1615,9 +1555,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1655,7 +1595,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1761,7 +1701,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1903,28 +1843,34 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:X60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="AA17" sqref="AA17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N93" sqref="N93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="14" max="14" width="91.83203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1986,18 +1932,21 @@
         <v>20</v>
       </c>
       <c r="U2" t="s">
+        <v>323</v>
+      </c>
+      <c r="V2" t="s">
+        <v>324</v>
+      </c>
+      <c r="W2" t="s">
+        <v>325</v>
+      </c>
+      <c r="X2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>21</v>
-      </c>
-      <c r="V2" t="s">
-        <v>22</v>
-      </c>
-      <c r="W2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>24</v>
       </c>
       <c r="B3">
         <v>220459</v>
@@ -2018,57 +1967,54 @@
         <v>5522</v>
       </c>
       <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" t="s">
         <v>25</v>
       </c>
-      <c r="I3" t="s">
+      <c r="L3" t="s">
         <v>26</v>
       </c>
-      <c r="J3" t="s">
+      <c r="M3" t="s">
         <v>27</v>
       </c>
-      <c r="K3" t="s">
+      <c r="N3" t="s">
         <v>28</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>29</v>
       </c>
-      <c r="M3" t="s">
+      <c r="P3" t="s">
         <v>30</v>
       </c>
-      <c r="N3" t="s">
+      <c r="Q3" t="s">
         <v>31</v>
       </c>
-      <c r="O3" t="s">
+      <c r="R3" t="s">
         <v>32</v>
       </c>
-      <c r="P3" t="s">
+      <c r="S3" t="s">
         <v>33</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="U3" t="b">
+        <v>1</v>
+      </c>
+      <c r="V3" t="s">
+        <v>323</v>
+      </c>
+      <c r="W3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>34</v>
-      </c>
-      <c r="R3" t="s">
-        <v>35</v>
-      </c>
-      <c r="S3" t="s">
-        <v>36</v>
-      </c>
-      <c r="T3" t="s">
-        <v>37</v>
-      </c>
-      <c r="U3" t="s">
-        <v>38</v>
-      </c>
-      <c r="W3" t="b">
-        <v>1</v>
-      </c>
-      <c r="X3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>40</v>
       </c>
       <c r="B4">
         <v>220453</v>
@@ -2089,57 +2035,54 @@
         <v>5536</v>
       </c>
       <c r="H4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" t="s">
+        <v>38</v>
+      </c>
+      <c r="O4" t="s">
+        <v>39</v>
+      </c>
+      <c r="P4" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>31</v>
+      </c>
+      <c r="R4" t="s">
+        <v>33</v>
+      </c>
+      <c r="S4" t="s">
         <v>41</v>
       </c>
-      <c r="I4" t="s">
+      <c r="U4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V4" t="s">
+        <v>323</v>
+      </c>
+      <c r="W4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>42</v>
-      </c>
-      <c r="J4" t="s">
-        <v>43</v>
-      </c>
-      <c r="K4" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" t="s">
-        <v>29</v>
-      </c>
-      <c r="M4" t="s">
-        <v>30</v>
-      </c>
-      <c r="N4" t="s">
-        <v>44</v>
-      </c>
-      <c r="O4" t="s">
-        <v>45</v>
-      </c>
-      <c r="P4" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>47</v>
-      </c>
-      <c r="R4" t="s">
-        <v>48</v>
-      </c>
-      <c r="S4" t="s">
-        <v>36</v>
-      </c>
-      <c r="T4" t="s">
-        <v>38</v>
-      </c>
-      <c r="U4" t="s">
-        <v>49</v>
-      </c>
-      <c r="W4" t="b">
-        <v>1</v>
-      </c>
-      <c r="X4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>50</v>
       </c>
       <c r="B5">
         <v>220453</v>
@@ -2160,57 +2103,54 @@
         <v>5694</v>
       </c>
       <c r="H5" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I5" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J5" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="K5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" t="s">
+        <v>46</v>
+      </c>
+      <c r="O5" t="s">
         <v>29</v>
       </c>
-      <c r="M5" t="s">
-        <v>30</v>
-      </c>
-      <c r="N5" t="s">
-        <v>54</v>
-      </c>
-      <c r="O5" t="s">
-        <v>32</v>
-      </c>
       <c r="P5" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="Q5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="R5" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="S5" t="s">
-        <v>36</v>
-      </c>
-      <c r="T5" t="s">
-        <v>57</v>
-      </c>
-      <c r="U5" t="s">
-        <v>58</v>
+        <v>49</v>
+      </c>
+      <c r="U5" t="b">
+        <v>1</v>
+      </c>
+      <c r="V5" t="s">
+        <v>323</v>
       </c>
       <c r="W5" t="b">
-        <v>1</v>
-      </c>
-      <c r="X5" t="s">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B6">
         <v>220470</v>
@@ -2231,57 +2171,54 @@
         <v>5705</v>
       </c>
       <c r="H6" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="I6" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="J6" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="K6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N6" t="s">
+        <v>54</v>
+      </c>
+      <c r="O6" t="s">
         <v>29</v>
       </c>
-      <c r="M6" t="s">
-        <v>30</v>
-      </c>
-      <c r="N6" t="s">
-        <v>63</v>
-      </c>
-      <c r="O6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P6" t="s">
-        <v>64</v>
+      <c r="P6" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="Q6" t="s">
-        <v>34</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>65</v>
+        <v>31</v>
+      </c>
+      <c r="R6" t="s">
+        <v>56</v>
       </c>
       <c r="S6" t="s">
-        <v>36</v>
-      </c>
-      <c r="T6" t="s">
-        <v>66</v>
-      </c>
-      <c r="U6" t="s">
-        <v>67</v>
+        <v>57</v>
+      </c>
+      <c r="U6" t="b">
+        <v>0</v>
       </c>
       <c r="W6" t="b">
         <v>1</v>
       </c>
       <c r="X6" t="s">
-        <v>39</v>
+        <v>325</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B7">
         <v>220470</v>
@@ -2302,57 +2239,54 @@
         <v>5710</v>
       </c>
       <c r="H7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" t="s">
+        <v>27</v>
+      </c>
+      <c r="N7" t="s">
         <v>60</v>
       </c>
-      <c r="I7" t="s">
+      <c r="O7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P7" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="J7" t="s">
-        <v>69</v>
-      </c>
-      <c r="K7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L7" t="s">
-        <v>29</v>
-      </c>
-      <c r="M7" t="s">
-        <v>30</v>
-      </c>
-      <c r="N7" t="s">
-        <v>63</v>
-      </c>
-      <c r="O7" t="s">
-        <v>32</v>
-      </c>
-      <c r="P7" t="s">
-        <v>70</v>
-      </c>
       <c r="Q7" t="s">
-        <v>34</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>71</v>
+        <v>31</v>
+      </c>
+      <c r="R7" t="s">
+        <v>56</v>
       </c>
       <c r="S7" t="s">
-        <v>36</v>
-      </c>
-      <c r="T7" t="s">
-        <v>66</v>
-      </c>
-      <c r="U7" t="s">
-        <v>67</v>
+        <v>57</v>
+      </c>
+      <c r="U7" t="b">
+        <v>0</v>
       </c>
       <c r="W7" t="b">
         <v>1</v>
       </c>
       <c r="X7" t="s">
-        <v>39</v>
+        <v>325</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B8">
         <v>220467</v>
@@ -2373,57 +2307,54 @@
         <v>5726</v>
       </c>
       <c r="H8" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="I8" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="J8" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="K8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L8" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N8" t="s">
+        <v>66</v>
+      </c>
+      <c r="O8" t="s">
         <v>29</v>
       </c>
-      <c r="M8" t="s">
-        <v>30</v>
-      </c>
-      <c r="N8" t="s">
-        <v>76</v>
-      </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>31</v>
+      </c>
+      <c r="R8" t="s">
         <v>32</v>
       </c>
-      <c r="P8" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>34</v>
-      </c>
-      <c r="R8" t="s">
-        <v>78</v>
-      </c>
       <c r="S8" t="s">
-        <v>36</v>
-      </c>
-      <c r="T8" t="s">
-        <v>37</v>
-      </c>
-      <c r="U8" t="s">
-        <v>38</v>
+        <v>33</v>
+      </c>
+      <c r="U8" t="b">
+        <v>1</v>
+      </c>
+      <c r="V8" t="s">
+        <v>323</v>
       </c>
       <c r="W8" t="b">
-        <v>1</v>
-      </c>
-      <c r="X8" t="s">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="B9">
         <v>220467</v>
@@ -2444,57 +2375,54 @@
         <v>5728</v>
       </c>
       <c r="H9" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="I9" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="J9" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="K9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L9" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N9" t="s">
+        <v>70</v>
+      </c>
+      <c r="O9" t="s">
         <v>29</v>
       </c>
-      <c r="M9" t="s">
-        <v>30</v>
-      </c>
-      <c r="N9" t="s">
-        <v>76</v>
-      </c>
-      <c r="O9" t="s">
+      <c r="P9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R9" t="s">
         <v>32</v>
       </c>
-      <c r="P9" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>34</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="S9" t="s">
-        <v>36</v>
-      </c>
-      <c r="T9" t="s">
-        <v>37</v>
-      </c>
-      <c r="U9" t="s">
-        <v>38</v>
+        <v>33</v>
+      </c>
+      <c r="U9" t="b">
+        <v>0</v>
       </c>
       <c r="W9" t="b">
         <v>1</v>
       </c>
       <c r="X9" t="s">
-        <v>39</v>
+        <v>325</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="B10">
         <v>220463</v>
@@ -2515,57 +2443,54 @@
         <v>5730</v>
       </c>
       <c r="H10" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="I10" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J10" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L10" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10" t="s">
+        <v>27</v>
+      </c>
+      <c r="N10" t="s">
+        <v>76</v>
+      </c>
+      <c r="O10" t="s">
         <v>29</v>
       </c>
-      <c r="M10" t="s">
-        <v>30</v>
-      </c>
-      <c r="N10" t="s">
-        <v>87</v>
-      </c>
-      <c r="O10" t="s">
-        <v>32</v>
-      </c>
-      <c r="P10" t="s">
-        <v>88</v>
+      <c r="P10" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="Q10" t="s">
-        <v>34</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>89</v>
+        <v>31</v>
+      </c>
+      <c r="R10" t="s">
+        <v>49</v>
       </c>
       <c r="S10" t="s">
-        <v>36</v>
-      </c>
-      <c r="T10" t="s">
-        <v>58</v>
-      </c>
-      <c r="U10" t="s">
-        <v>90</v>
+        <v>78</v>
+      </c>
+      <c r="U10" t="b">
+        <v>0</v>
       </c>
       <c r="W10" t="b">
         <v>1</v>
       </c>
       <c r="X10" t="s">
-        <v>39</v>
+        <v>325</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="B11">
         <v>220467</v>
@@ -2586,57 +2511,54 @@
         <v>5731</v>
       </c>
       <c r="H11" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="I11" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="J11" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L11" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11" t="s">
+        <v>27</v>
+      </c>
+      <c r="N11" t="s">
+        <v>81</v>
+      </c>
+      <c r="O11" t="s">
         <v>29</v>
       </c>
-      <c r="M11" t="s">
-        <v>30</v>
-      </c>
-      <c r="N11" t="s">
-        <v>76</v>
-      </c>
-      <c r="O11" t="s">
+      <c r="P11" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>31</v>
+      </c>
+      <c r="R11" t="s">
         <v>32</v>
       </c>
-      <c r="P11" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>34</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="S11" t="s">
-        <v>36</v>
-      </c>
-      <c r="T11" t="s">
-        <v>37</v>
-      </c>
-      <c r="U11" t="s">
-        <v>38</v>
+        <v>33</v>
+      </c>
+      <c r="U11" t="b">
+        <v>0</v>
       </c>
       <c r="W11" t="b">
         <v>1</v>
       </c>
       <c r="X11" t="s">
-        <v>39</v>
+        <v>325</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="B12">
         <v>220463</v>
@@ -2657,57 +2579,54 @@
         <v>5734</v>
       </c>
       <c r="H12" t="s">
+        <v>73</v>
+      </c>
+      <c r="I12" t="s">
+        <v>74</v>
+      </c>
+      <c r="J12" t="s">
         <v>84</v>
       </c>
-      <c r="I12" t="s">
+      <c r="K12" t="s">
+        <v>25</v>
+      </c>
+      <c r="L12" t="s">
+        <v>26</v>
+      </c>
+      <c r="M12" t="s">
+        <v>27</v>
+      </c>
+      <c r="N12" t="s">
         <v>85</v>
       </c>
-      <c r="J12" t="s">
-        <v>96</v>
-      </c>
-      <c r="K12" t="s">
-        <v>28</v>
-      </c>
-      <c r="L12" t="s">
+      <c r="O12" t="s">
         <v>29</v>
       </c>
-      <c r="M12" t="s">
-        <v>30</v>
-      </c>
-      <c r="N12" t="s">
+      <c r="P12" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>31</v>
+      </c>
+      <c r="R12" t="s">
+        <v>49</v>
+      </c>
+      <c r="S12" t="s">
+        <v>78</v>
+      </c>
+      <c r="U12" t="b">
+        <v>1</v>
+      </c>
+      <c r="V12" t="s">
+        <v>323</v>
+      </c>
+      <c r="W12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>87</v>
-      </c>
-      <c r="O12" t="s">
-        <v>32</v>
-      </c>
-      <c r="P12" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>34</v>
-      </c>
-      <c r="R12" t="s">
-        <v>98</v>
-      </c>
-      <c r="S12" t="s">
-        <v>36</v>
-      </c>
-      <c r="T12" t="s">
-        <v>58</v>
-      </c>
-      <c r="U12" t="s">
-        <v>90</v>
-      </c>
-      <c r="W12" t="b">
-        <v>1</v>
-      </c>
-      <c r="X12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>99</v>
       </c>
       <c r="B13">
         <v>220467</v>
@@ -2728,57 +2647,54 @@
         <v>5737</v>
       </c>
       <c r="H13" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="I13" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="J13" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="K13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L13" t="s">
+        <v>26</v>
+      </c>
+      <c r="M13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N13" t="s">
+        <v>89</v>
+      </c>
+      <c r="O13" t="s">
         <v>29</v>
       </c>
-      <c r="M13" t="s">
-        <v>30</v>
-      </c>
-      <c r="N13" t="s">
-        <v>76</v>
-      </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>31</v>
+      </c>
+      <c r="R13" t="s">
         <v>32</v>
       </c>
-      <c r="P13" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>34</v>
-      </c>
-      <c r="R13" t="s">
-        <v>102</v>
-      </c>
       <c r="S13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T13" t="s">
-        <v>37</v>
-      </c>
-      <c r="U13" t="s">
-        <v>38</v>
+        <v>33</v>
+      </c>
+      <c r="U13" t="b">
+        <v>1</v>
+      </c>
+      <c r="V13" t="s">
+        <v>323</v>
       </c>
       <c r="W13" t="b">
-        <v>1</v>
-      </c>
-      <c r="X13" t="s">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="B14">
         <v>220453</v>
@@ -2799,57 +2715,54 @@
         <v>5744</v>
       </c>
       <c r="H14" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I14" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J14" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="K14" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L14" t="s">
+        <v>26</v>
+      </c>
+      <c r="M14" t="s">
+        <v>27</v>
+      </c>
+      <c r="N14" t="s">
+        <v>93</v>
+      </c>
+      <c r="O14" t="s">
         <v>29</v>
       </c>
-      <c r="M14" t="s">
-        <v>30</v>
-      </c>
-      <c r="N14" t="s">
-        <v>54</v>
-      </c>
-      <c r="O14" t="s">
-        <v>32</v>
-      </c>
-      <c r="P14" t="s">
-        <v>105</v>
+      <c r="P14" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="Q14" t="s">
-        <v>34</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>106</v>
+        <v>31</v>
+      </c>
+      <c r="R14" t="s">
+        <v>95</v>
       </c>
       <c r="S14" t="s">
-        <v>36</v>
-      </c>
-      <c r="T14" t="s">
-        <v>107</v>
-      </c>
-      <c r="U14" t="s">
-        <v>58</v>
+        <v>49</v>
+      </c>
+      <c r="U14" t="b">
+        <v>0</v>
       </c>
       <c r="W14" t="b">
         <v>1</v>
       </c>
       <c r="X14" t="s">
-        <v>39</v>
+        <v>325</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="B15">
         <v>220468</v>
@@ -2870,57 +2783,54 @@
         <v>5746</v>
       </c>
       <c r="H15" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="I15" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="J15" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="K15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L15" t="s">
+        <v>26</v>
+      </c>
+      <c r="M15" t="s">
+        <v>27</v>
+      </c>
+      <c r="N15" t="s">
+        <v>100</v>
+      </c>
+      <c r="O15" t="s">
         <v>29</v>
       </c>
-      <c r="M15" t="s">
-        <v>30</v>
-      </c>
-      <c r="N15" t="s">
-        <v>112</v>
-      </c>
-      <c r="O15" t="s">
-        <v>32</v>
-      </c>
       <c r="P15" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="Q15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="R15" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="S15" t="s">
-        <v>36</v>
-      </c>
-      <c r="T15" t="s">
-        <v>115</v>
-      </c>
-      <c r="U15" t="s">
-        <v>116</v>
+        <v>103</v>
+      </c>
+      <c r="U15" t="b">
+        <v>1</v>
+      </c>
+      <c r="V15" t="s">
+        <v>323</v>
       </c>
       <c r="W15" t="b">
-        <v>1</v>
-      </c>
-      <c r="X15" t="s">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="B16">
         <v>220454</v>
@@ -2941,57 +2851,54 @@
         <v>5774</v>
       </c>
       <c r="H16" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="I16" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="J16" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="K16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L16" t="s">
+        <v>26</v>
+      </c>
+      <c r="M16" t="s">
+        <v>27</v>
+      </c>
+      <c r="N16" t="s">
+        <v>108</v>
+      </c>
+      <c r="O16" t="s">
         <v>29</v>
       </c>
-      <c r="M16" t="s">
-        <v>30</v>
-      </c>
-      <c r="N16" t="s">
-        <v>121</v>
-      </c>
-      <c r="O16" t="s">
-        <v>32</v>
-      </c>
-      <c r="P16" t="s">
-        <v>122</v>
+      <c r="P16" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="Q16" t="s">
-        <v>34</v>
-      </c>
-      <c r="R16" s="1" t="s">
-        <v>123</v>
+        <v>31</v>
+      </c>
+      <c r="R16" t="s">
+        <v>48</v>
       </c>
       <c r="S16" t="s">
-        <v>36</v>
-      </c>
-      <c r="T16" t="s">
-        <v>57</v>
-      </c>
-      <c r="U16" t="s">
-        <v>116</v>
+        <v>103</v>
+      </c>
+      <c r="U16" t="b">
+        <v>0</v>
       </c>
       <c r="W16" t="b">
         <v>1</v>
       </c>
       <c r="X16" t="s">
-        <v>39</v>
+        <v>325</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="B17">
         <v>220454</v>
@@ -3012,57 +2919,54 @@
         <v>5775</v>
       </c>
       <c r="H17" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="I17" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="J17" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="K17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L17" t="s">
+        <v>26</v>
+      </c>
+      <c r="M17" t="s">
+        <v>27</v>
+      </c>
+      <c r="N17" t="s">
+        <v>112</v>
+      </c>
+      <c r="O17" t="s">
         <v>29</v>
       </c>
-      <c r="M17" t="s">
-        <v>30</v>
-      </c>
-      <c r="N17" t="s">
-        <v>121</v>
-      </c>
-      <c r="O17" t="s">
-        <v>32</v>
-      </c>
       <c r="P17" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="Q17" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="R17" t="s">
-        <v>127</v>
+        <v>48</v>
       </c>
       <c r="S17" t="s">
-        <v>36</v>
-      </c>
-      <c r="T17" t="s">
-        <v>57</v>
-      </c>
-      <c r="U17" t="s">
-        <v>116</v>
+        <v>103</v>
+      </c>
+      <c r="U17" t="b">
+        <v>1</v>
+      </c>
+      <c r="V17" t="s">
+        <v>323</v>
       </c>
       <c r="W17" t="b">
-        <v>1</v>
-      </c>
-      <c r="X17" t="s">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="B18">
         <v>220454</v>
@@ -3083,57 +2987,54 @@
         <v>5776</v>
       </c>
       <c r="H18" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="I18" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="J18" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="K18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L18" t="s">
+        <v>26</v>
+      </c>
+      <c r="M18" t="s">
+        <v>27</v>
+      </c>
+      <c r="N18" t="s">
+        <v>116</v>
+      </c>
+      <c r="O18" t="s">
         <v>29</v>
       </c>
-      <c r="M18" t="s">
-        <v>30</v>
-      </c>
-      <c r="N18" t="s">
-        <v>121</v>
-      </c>
-      <c r="O18" t="s">
-        <v>32</v>
-      </c>
-      <c r="P18" t="s">
-        <v>130</v>
+      <c r="P18" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="Q18" t="s">
-        <v>34</v>
-      </c>
-      <c r="R18" s="1" t="s">
-        <v>131</v>
+        <v>31</v>
+      </c>
+      <c r="R18" t="s">
+        <v>48</v>
       </c>
       <c r="S18" t="s">
-        <v>36</v>
-      </c>
-      <c r="T18" t="s">
-        <v>57</v>
-      </c>
-      <c r="U18" t="s">
-        <v>116</v>
+        <v>103</v>
+      </c>
+      <c r="U18" t="b">
+        <v>0</v>
       </c>
       <c r="W18" t="b">
         <v>1</v>
       </c>
       <c r="X18" t="s">
-        <v>39</v>
+        <v>325</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="B19">
         <v>220454</v>
@@ -3154,57 +3055,54 @@
         <v>5786</v>
       </c>
       <c r="H19" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="I19" t="s">
+        <v>106</v>
+      </c>
+      <c r="J19" t="s">
         <v>119</v>
       </c>
-      <c r="J19" t="s">
-        <v>133</v>
-      </c>
       <c r="K19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L19" t="s">
+        <v>26</v>
+      </c>
+      <c r="M19" t="s">
+        <v>27</v>
+      </c>
+      <c r="N19" t="s">
+        <v>120</v>
+      </c>
+      <c r="O19" t="s">
         <v>29</v>
       </c>
-      <c r="M19" t="s">
-        <v>30</v>
-      </c>
-      <c r="N19" t="s">
+      <c r="P19" t="s">
         <v>121</v>
       </c>
-      <c r="O19" t="s">
-        <v>32</v>
-      </c>
-      <c r="P19" t="s">
-        <v>134</v>
-      </c>
       <c r="Q19" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="R19" t="s">
-        <v>135</v>
+        <v>48</v>
       </c>
       <c r="S19" t="s">
-        <v>36</v>
-      </c>
-      <c r="T19" t="s">
-        <v>57</v>
-      </c>
-      <c r="U19" t="s">
-        <v>116</v>
+        <v>103</v>
+      </c>
+      <c r="U19" t="b">
+        <v>1</v>
+      </c>
+      <c r="V19" t="s">
+        <v>323</v>
       </c>
       <c r="W19" t="b">
-        <v>1</v>
-      </c>
-      <c r="X19" t="s">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="B20">
         <v>220452</v>
@@ -3225,57 +3123,54 @@
         <v>5787</v>
       </c>
       <c r="H20" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="I20" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="J20" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="K20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L20" t="s">
+        <v>26</v>
+      </c>
+      <c r="M20" t="s">
+        <v>27</v>
+      </c>
+      <c r="N20" t="s">
+        <v>126</v>
+      </c>
+      <c r="O20" t="s">
         <v>29</v>
       </c>
-      <c r="M20" t="s">
-        <v>30</v>
-      </c>
-      <c r="N20" t="s">
-        <v>140</v>
-      </c>
-      <c r="O20" t="s">
-        <v>32</v>
-      </c>
       <c r="P20" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="Q20" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="R20" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="S20" t="s">
-        <v>36</v>
-      </c>
-      <c r="T20" t="s">
-        <v>143</v>
-      </c>
-      <c r="U20" t="s">
-        <v>144</v>
+        <v>129</v>
+      </c>
+      <c r="U20" t="b">
+        <v>1</v>
+      </c>
+      <c r="V20" t="s">
+        <v>323</v>
       </c>
       <c r="W20" t="b">
-        <v>1</v>
-      </c>
-      <c r="X20" t="s">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="B21">
         <v>220464</v>
@@ -3296,57 +3191,54 @@
         <v>5789</v>
       </c>
       <c r="H21" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="I21" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="J21" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="K21" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L21" t="s">
+        <v>26</v>
+      </c>
+      <c r="M21" t="s">
+        <v>27</v>
+      </c>
+      <c r="N21" t="s">
+        <v>134</v>
+      </c>
+      <c r="O21" t="s">
         <v>29</v>
       </c>
-      <c r="M21" t="s">
-        <v>30</v>
-      </c>
-      <c r="N21" t="s">
-        <v>149</v>
-      </c>
-      <c r="O21" t="s">
-        <v>32</v>
-      </c>
       <c r="P21" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="Q21" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="R21" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="S21" t="s">
-        <v>36</v>
-      </c>
-      <c r="T21" t="s">
-        <v>152</v>
-      </c>
-      <c r="U21" t="s">
-        <v>153</v>
+        <v>137</v>
+      </c>
+      <c r="U21" t="b">
+        <v>1</v>
+      </c>
+      <c r="V21" t="s">
+        <v>323</v>
       </c>
       <c r="W21" t="b">
-        <v>1</v>
-      </c>
-      <c r="X21" t="s">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="B22">
         <v>220464</v>
@@ -3367,57 +3259,54 @@
         <v>5790</v>
       </c>
       <c r="H22" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="I22" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="J22" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="K22" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L22" t="s">
+        <v>26</v>
+      </c>
+      <c r="M22" t="s">
+        <v>27</v>
+      </c>
+      <c r="N22" t="s">
+        <v>140</v>
+      </c>
+      <c r="O22" t="s">
         <v>29</v>
       </c>
-      <c r="M22" t="s">
-        <v>30</v>
-      </c>
-      <c r="N22" t="s">
-        <v>149</v>
-      </c>
-      <c r="O22" t="s">
-        <v>32</v>
-      </c>
       <c r="P22" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="Q22" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="R22" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="S22" t="s">
-        <v>36</v>
-      </c>
-      <c r="T22" t="s">
-        <v>152</v>
-      </c>
-      <c r="U22" t="s">
-        <v>153</v>
+        <v>137</v>
+      </c>
+      <c r="U22" t="b">
+        <v>1</v>
+      </c>
+      <c r="V22" t="s">
+        <v>323</v>
       </c>
       <c r="W22" t="b">
-        <v>1</v>
-      </c>
-      <c r="X22" t="s">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="B23">
         <v>220464</v>
@@ -3438,57 +3327,54 @@
         <v>5792</v>
       </c>
       <c r="H23" t="s">
+        <v>131</v>
+      </c>
+      <c r="I23" t="s">
+        <v>132</v>
+      </c>
+      <c r="J23" t="s">
+        <v>143</v>
+      </c>
+      <c r="K23" t="s">
+        <v>25</v>
+      </c>
+      <c r="L23" t="s">
+        <v>26</v>
+      </c>
+      <c r="M23" t="s">
+        <v>27</v>
+      </c>
+      <c r="N23" t="s">
+        <v>144</v>
+      </c>
+      <c r="O23" t="s">
+        <v>29</v>
+      </c>
+      <c r="P23" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>31</v>
+      </c>
+      <c r="R23" t="s">
+        <v>136</v>
+      </c>
+      <c r="S23" t="s">
+        <v>137</v>
+      </c>
+      <c r="U23" t="b">
+        <v>1</v>
+      </c>
+      <c r="V23" t="s">
+        <v>323</v>
+      </c>
+      <c r="W23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>146</v>
-      </c>
-      <c r="I23" t="s">
-        <v>147</v>
-      </c>
-      <c r="J23" t="s">
-        <v>159</v>
-      </c>
-      <c r="K23" t="s">
-        <v>28</v>
-      </c>
-      <c r="L23" t="s">
-        <v>29</v>
-      </c>
-      <c r="M23" t="s">
-        <v>30</v>
-      </c>
-      <c r="N23" t="s">
-        <v>149</v>
-      </c>
-      <c r="O23" t="s">
-        <v>32</v>
-      </c>
-      <c r="P23" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>34</v>
-      </c>
-      <c r="R23" t="s">
-        <v>161</v>
-      </c>
-      <c r="S23" t="s">
-        <v>36</v>
-      </c>
-      <c r="T23" t="s">
-        <v>152</v>
-      </c>
-      <c r="U23" t="s">
-        <v>153</v>
-      </c>
-      <c r="W23" t="b">
-        <v>1</v>
-      </c>
-      <c r="X23" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>162</v>
       </c>
       <c r="B24">
         <v>220464</v>
@@ -3509,57 +3395,54 @@
         <v>5793</v>
       </c>
       <c r="H24" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="I24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J24" t="s">
         <v>147</v>
       </c>
-      <c r="J24" t="s">
-        <v>163</v>
-      </c>
       <c r="K24" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L24" t="s">
+        <v>26</v>
+      </c>
+      <c r="M24" t="s">
+        <v>27</v>
+      </c>
+      <c r="N24" t="s">
+        <v>148</v>
+      </c>
+      <c r="O24" t="s">
         <v>29</v>
       </c>
-      <c r="M24" t="s">
-        <v>30</v>
-      </c>
-      <c r="N24" t="s">
+      <c r="P24" t="s">
         <v>149</v>
       </c>
-      <c r="O24" t="s">
-        <v>32</v>
-      </c>
-      <c r="P24" t="s">
-        <v>164</v>
-      </c>
       <c r="Q24" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="R24" t="s">
-        <v>165</v>
+        <v>136</v>
       </c>
       <c r="S24" t="s">
-        <v>36</v>
-      </c>
-      <c r="T24" t="s">
-        <v>152</v>
-      </c>
-      <c r="U24" t="s">
-        <v>153</v>
+        <v>137</v>
+      </c>
+      <c r="U24" t="b">
+        <v>1</v>
+      </c>
+      <c r="V24" t="s">
+        <v>323</v>
       </c>
       <c r="W24" t="b">
-        <v>1</v>
-      </c>
-      <c r="X24" t="s">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="B25">
         <v>220464</v>
@@ -3580,57 +3463,54 @@
         <v>5802</v>
       </c>
       <c r="H25" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="I25" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="J25" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="K25" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L25" t="s">
+        <v>26</v>
+      </c>
+      <c r="M25" t="s">
+        <v>27</v>
+      </c>
+      <c r="N25" t="s">
+        <v>152</v>
+      </c>
+      <c r="O25" t="s">
         <v>29</v>
       </c>
-      <c r="M25" t="s">
-        <v>30</v>
-      </c>
-      <c r="N25" t="s">
-        <v>149</v>
-      </c>
-      <c r="O25" t="s">
-        <v>32</v>
-      </c>
       <c r="P25" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="Q25" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="R25" t="s">
-        <v>169</v>
+        <v>136</v>
       </c>
       <c r="S25" t="s">
-        <v>36</v>
-      </c>
-      <c r="T25" t="s">
-        <v>152</v>
-      </c>
-      <c r="U25" t="s">
-        <v>153</v>
+        <v>137</v>
+      </c>
+      <c r="U25" t="b">
+        <v>1</v>
+      </c>
+      <c r="V25" t="s">
+        <v>323</v>
       </c>
       <c r="W25" t="b">
-        <v>1</v>
-      </c>
-      <c r="X25" t="s">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="B26">
         <v>220464</v>
@@ -3651,57 +3531,54 @@
         <v>5805</v>
       </c>
       <c r="H26" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="I26" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="J26" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="K26" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L26" t="s">
+        <v>26</v>
+      </c>
+      <c r="M26" t="s">
+        <v>27</v>
+      </c>
+      <c r="N26" t="s">
+        <v>156</v>
+      </c>
+      <c r="O26" t="s">
         <v>29</v>
       </c>
-      <c r="M26" t="s">
-        <v>30</v>
-      </c>
-      <c r="N26" t="s">
-        <v>149</v>
-      </c>
-      <c r="O26" t="s">
-        <v>32</v>
-      </c>
       <c r="P26" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="Q26" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="R26" t="s">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="S26" t="s">
-        <v>36</v>
-      </c>
-      <c r="T26" t="s">
-        <v>152</v>
-      </c>
-      <c r="U26" t="s">
-        <v>153</v>
+        <v>137</v>
+      </c>
+      <c r="U26" t="b">
+        <v>1</v>
+      </c>
+      <c r="V26" t="s">
+        <v>323</v>
       </c>
       <c r="W26" t="b">
-        <v>1</v>
-      </c>
-      <c r="X26" t="s">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="B27">
         <v>220461</v>
@@ -3722,57 +3599,54 @@
         <v>5823</v>
       </c>
       <c r="H27" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="I27" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="J27" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="K27" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L27" t="s">
+        <v>26</v>
+      </c>
+      <c r="M27" t="s">
+        <v>27</v>
+      </c>
+      <c r="N27" t="s">
+        <v>162</v>
+      </c>
+      <c r="O27" t="s">
         <v>29</v>
       </c>
-      <c r="M27" t="s">
-        <v>30</v>
-      </c>
-      <c r="N27" t="s">
-        <v>178</v>
-      </c>
-      <c r="O27" t="s">
-        <v>32</v>
-      </c>
       <c r="P27" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="Q27" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="R27" t="s">
-        <v>180</v>
+        <v>95</v>
       </c>
       <c r="S27" t="s">
-        <v>36</v>
-      </c>
-      <c r="T27" t="s">
-        <v>107</v>
-      </c>
-      <c r="U27" t="s">
-        <v>116</v>
+        <v>103</v>
+      </c>
+      <c r="U27" t="b">
+        <v>1</v>
+      </c>
+      <c r="V27" t="s">
+        <v>323</v>
       </c>
       <c r="W27" t="b">
-        <v>1</v>
-      </c>
-      <c r="X27" t="s">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="B28">
         <v>220463</v>
@@ -3793,57 +3667,54 @@
         <v>5828</v>
       </c>
       <c r="H28" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="I28" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J28" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="K28" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L28" t="s">
+        <v>26</v>
+      </c>
+      <c r="M28" t="s">
+        <v>27</v>
+      </c>
+      <c r="N28" t="s">
+        <v>166</v>
+      </c>
+      <c r="O28" t="s">
         <v>29</v>
       </c>
-      <c r="M28" t="s">
-        <v>30</v>
-      </c>
-      <c r="N28" t="s">
-        <v>87</v>
-      </c>
-      <c r="O28" t="s">
-        <v>32</v>
-      </c>
-      <c r="P28" t="s">
-        <v>183</v>
+      <c r="P28" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="Q28" t="s">
-        <v>34</v>
-      </c>
-      <c r="R28" s="1" t="s">
-        <v>184</v>
+        <v>31</v>
+      </c>
+      <c r="R28" t="s">
+        <v>168</v>
       </c>
       <c r="S28" t="s">
-        <v>36</v>
-      </c>
-      <c r="T28" t="s">
-        <v>185</v>
-      </c>
-      <c r="U28" t="s">
-        <v>186</v>
+        <v>169</v>
+      </c>
+      <c r="U28" t="b">
+        <v>0</v>
       </c>
       <c r="W28" t="b">
         <v>1</v>
       </c>
       <c r="X28" t="s">
-        <v>39</v>
+        <v>325</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="B29">
         <v>220458</v>
@@ -3864,57 +3735,54 @@
         <v>5829</v>
       </c>
       <c r="H29" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="I29" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="J29" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="K29" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L29" t="s">
+        <v>26</v>
+      </c>
+      <c r="M29" t="s">
+        <v>27</v>
+      </c>
+      <c r="N29" t="s">
+        <v>174</v>
+      </c>
+      <c r="O29" t="s">
         <v>29</v>
       </c>
-      <c r="M29" t="s">
-        <v>30</v>
-      </c>
-      <c r="N29" t="s">
-        <v>191</v>
-      </c>
-      <c r="O29" t="s">
-        <v>32</v>
-      </c>
       <c r="P29" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="Q29" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="R29" t="s">
-        <v>193</v>
+        <v>136</v>
       </c>
       <c r="S29" t="s">
-        <v>36</v>
-      </c>
-      <c r="T29" t="s">
-        <v>152</v>
-      </c>
-      <c r="U29" t="s">
-        <v>153</v>
+        <v>137</v>
+      </c>
+      <c r="U29" t="b">
+        <v>1</v>
+      </c>
+      <c r="V29" t="s">
+        <v>323</v>
       </c>
       <c r="W29" t="b">
-        <v>1</v>
-      </c>
-      <c r="X29" t="s">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="B30">
         <v>220458</v>
@@ -3935,57 +3803,54 @@
         <v>5830</v>
       </c>
       <c r="H30" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="I30" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="J30" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="K30" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L30" t="s">
+        <v>26</v>
+      </c>
+      <c r="M30" t="s">
+        <v>27</v>
+      </c>
+      <c r="N30" t="s">
+        <v>178</v>
+      </c>
+      <c r="O30" t="s">
         <v>29</v>
       </c>
-      <c r="M30" t="s">
-        <v>30</v>
-      </c>
-      <c r="N30" t="s">
-        <v>191</v>
-      </c>
-      <c r="O30" t="s">
-        <v>32</v>
-      </c>
       <c r="P30" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="Q30" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="R30" t="s">
-        <v>197</v>
+        <v>136</v>
       </c>
       <c r="S30" t="s">
-        <v>36</v>
-      </c>
-      <c r="T30" t="s">
-        <v>152</v>
-      </c>
-      <c r="U30" t="s">
-        <v>153</v>
+        <v>137</v>
+      </c>
+      <c r="U30" t="b">
+        <v>1</v>
+      </c>
+      <c r="V30" t="s">
+        <v>323</v>
       </c>
       <c r="W30" t="b">
-        <v>1</v>
-      </c>
-      <c r="X30" t="s">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="B31">
         <v>220453</v>
@@ -4006,57 +3871,54 @@
         <v>5832</v>
       </c>
       <c r="H31" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I31" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J31" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="K31" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L31" t="s">
+        <v>26</v>
+      </c>
+      <c r="M31" t="s">
+        <v>27</v>
+      </c>
+      <c r="N31" t="s">
+        <v>182</v>
+      </c>
+      <c r="O31" t="s">
         <v>29</v>
       </c>
-      <c r="M31" t="s">
-        <v>30</v>
-      </c>
-      <c r="N31" t="s">
-        <v>54</v>
-      </c>
-      <c r="O31" t="s">
+      <c r="P31" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>31</v>
+      </c>
+      <c r="R31" t="s">
         <v>32</v>
       </c>
-      <c r="P31" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>34</v>
-      </c>
-      <c r="R31" s="1" t="s">
-        <v>201</v>
-      </c>
       <c r="S31" t="s">
-        <v>36</v>
-      </c>
-      <c r="T31" t="s">
-        <v>37</v>
-      </c>
-      <c r="U31" t="s">
-        <v>116</v>
+        <v>103</v>
+      </c>
+      <c r="U31" t="b">
+        <v>0</v>
       </c>
       <c r="W31" t="b">
         <v>1</v>
       </c>
       <c r="X31" t="s">
-        <v>39</v>
+        <v>325</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="B32">
         <v>220455</v>
@@ -4077,57 +3939,54 @@
         <v>5837</v>
       </c>
       <c r="H32" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="I32" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="J32" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="K32" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L32" t="s">
+        <v>26</v>
+      </c>
+      <c r="M32" t="s">
+        <v>27</v>
+      </c>
+      <c r="N32" t="s">
+        <v>188</v>
+      </c>
+      <c r="O32" t="s">
         <v>29</v>
       </c>
-      <c r="M32" t="s">
-        <v>30</v>
-      </c>
-      <c r="N32" t="s">
-        <v>206</v>
-      </c>
-      <c r="O32" t="s">
-        <v>32</v>
-      </c>
       <c r="P32" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="Q32" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="R32" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="S32" t="s">
-        <v>36</v>
-      </c>
-      <c r="T32" t="s">
-        <v>209</v>
-      </c>
-      <c r="U32" t="s">
-        <v>116</v>
+        <v>103</v>
+      </c>
+      <c r="U32" t="b">
+        <v>1</v>
+      </c>
+      <c r="V32" t="s">
+        <v>323</v>
       </c>
       <c r="W32" t="b">
-        <v>1</v>
-      </c>
-      <c r="X32" t="s">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="B33">
         <v>220458</v>
@@ -4148,57 +4007,54 @@
         <v>5842</v>
       </c>
       <c r="H33" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="I33" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="J33" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="K33" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L33" t="s">
+        <v>26</v>
+      </c>
+      <c r="M33" t="s">
+        <v>27</v>
+      </c>
+      <c r="N33" t="s">
+        <v>193</v>
+      </c>
+      <c r="O33" t="s">
         <v>29</v>
       </c>
-      <c r="M33" t="s">
-        <v>30</v>
-      </c>
-      <c r="N33" t="s">
-        <v>191</v>
-      </c>
-      <c r="O33" t="s">
-        <v>32</v>
-      </c>
       <c r="P33" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="Q33" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="R33" t="s">
-        <v>213</v>
+        <v>136</v>
       </c>
       <c r="S33" t="s">
-        <v>36</v>
-      </c>
-      <c r="T33" t="s">
-        <v>152</v>
-      </c>
-      <c r="U33" t="s">
-        <v>153</v>
+        <v>137</v>
+      </c>
+      <c r="U33" t="b">
+        <v>1</v>
+      </c>
+      <c r="V33" t="s">
+        <v>323</v>
       </c>
       <c r="W33" t="b">
-        <v>1</v>
-      </c>
-      <c r="X33" t="s">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="B34">
         <v>220468</v>
@@ -4219,57 +4075,54 @@
         <v>5844</v>
       </c>
       <c r="H34" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="I34" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="J34" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="K34" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L34" t="s">
+        <v>26</v>
+      </c>
+      <c r="M34" t="s">
+        <v>27</v>
+      </c>
+      <c r="N34" t="s">
+        <v>197</v>
+      </c>
+      <c r="O34" t="s">
         <v>29</v>
       </c>
-      <c r="M34" t="s">
-        <v>30</v>
-      </c>
-      <c r="N34" t="s">
-        <v>112</v>
-      </c>
-      <c r="O34" t="s">
-        <v>32</v>
-      </c>
       <c r="P34" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="Q34" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="R34" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="S34" t="s">
-        <v>36</v>
-      </c>
-      <c r="T34" t="s">
-        <v>218</v>
-      </c>
-      <c r="U34" t="s">
-        <v>49</v>
+        <v>41</v>
+      </c>
+      <c r="U34" t="b">
+        <v>1</v>
+      </c>
+      <c r="V34" t="s">
+        <v>323</v>
       </c>
       <c r="W34" t="b">
-        <v>1</v>
-      </c>
-      <c r="X34" t="s">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="B35">
         <v>220459</v>
@@ -4290,57 +4143,54 @@
         <v>5846</v>
       </c>
       <c r="H35" t="s">
+        <v>22</v>
+      </c>
+      <c r="I35" t="s">
+        <v>23</v>
+      </c>
+      <c r="J35" t="s">
+        <v>200</v>
+      </c>
+      <c r="K35" t="s">
         <v>25</v>
       </c>
-      <c r="I35" t="s">
+      <c r="L35" t="s">
         <v>26</v>
       </c>
-      <c r="J35" t="s">
-        <v>219</v>
-      </c>
-      <c r="K35" t="s">
-        <v>28</v>
-      </c>
-      <c r="L35" t="s">
+      <c r="M35" t="s">
+        <v>27</v>
+      </c>
+      <c r="N35" t="s">
+        <v>70</v>
+      </c>
+      <c r="O35" t="s">
         <v>29</v>
       </c>
-      <c r="M35" t="s">
-        <v>30</v>
-      </c>
-      <c r="N35" t="s">
+      <c r="P35" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q35" t="s">
         <v>31</v>
       </c>
-      <c r="O35" t="s">
-        <v>32</v>
-      </c>
-      <c r="P35" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>34</v>
-      </c>
       <c r="R35" t="s">
-        <v>220</v>
+        <v>56</v>
       </c>
       <c r="S35" t="s">
-        <v>36</v>
-      </c>
-      <c r="T35" t="s">
-        <v>66</v>
-      </c>
-      <c r="U35" t="s">
-        <v>38</v>
+        <v>33</v>
+      </c>
+      <c r="U35" t="b">
+        <v>1</v>
+      </c>
+      <c r="V35" t="s">
+        <v>323</v>
       </c>
       <c r="W35" t="b">
-        <v>1</v>
-      </c>
-      <c r="X35" t="s">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="B36">
         <v>220470</v>
@@ -4361,57 +4211,54 @@
         <v>5847</v>
       </c>
       <c r="H36" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="I36" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="J36" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="K36" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L36" t="s">
+        <v>26</v>
+      </c>
+      <c r="M36" t="s">
+        <v>27</v>
+      </c>
+      <c r="N36" t="s">
+        <v>204</v>
+      </c>
+      <c r="O36" t="s">
         <v>29</v>
       </c>
-      <c r="M36" t="s">
-        <v>30</v>
-      </c>
-      <c r="N36" t="s">
-        <v>63</v>
-      </c>
-      <c r="O36" t="s">
-        <v>32</v>
-      </c>
       <c r="P36" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="Q36" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="R36" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="S36" t="s">
-        <v>36</v>
-      </c>
-      <c r="T36" t="s">
-        <v>225</v>
-      </c>
-      <c r="U36" t="s">
-        <v>218</v>
+        <v>199</v>
+      </c>
+      <c r="U36" t="b">
+        <v>1</v>
+      </c>
+      <c r="V36" t="s">
+        <v>323</v>
       </c>
       <c r="W36" t="b">
-        <v>1</v>
-      </c>
-      <c r="X36" t="s">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="B37">
         <v>220458</v>
@@ -4432,57 +4279,54 @@
         <v>5849</v>
       </c>
       <c r="H37" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="I37" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="J37" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="K37" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L37" t="s">
+        <v>26</v>
+      </c>
+      <c r="M37" t="s">
+        <v>27</v>
+      </c>
+      <c r="N37" t="s">
+        <v>209</v>
+      </c>
+      <c r="O37" t="s">
         <v>29</v>
       </c>
-      <c r="M37" t="s">
-        <v>30</v>
-      </c>
-      <c r="N37" t="s">
-        <v>191</v>
-      </c>
-      <c r="O37" t="s">
-        <v>32</v>
-      </c>
       <c r="P37" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="Q37" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="R37" t="s">
-        <v>229</v>
+        <v>136</v>
       </c>
       <c r="S37" t="s">
-        <v>36</v>
-      </c>
-      <c r="T37" t="s">
-        <v>152</v>
-      </c>
-      <c r="U37" t="s">
-        <v>153</v>
+        <v>137</v>
+      </c>
+      <c r="U37" t="b">
+        <v>1</v>
+      </c>
+      <c r="V37" t="s">
+        <v>323</v>
       </c>
       <c r="W37" t="b">
-        <v>1</v>
-      </c>
-      <c r="X37" t="s">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="B38">
         <v>220458</v>
@@ -4503,57 +4347,54 @@
         <v>5851</v>
       </c>
       <c r="H38" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="I38" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="J38" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="K38" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L38" t="s">
+        <v>26</v>
+      </c>
+      <c r="M38" t="s">
+        <v>27</v>
+      </c>
+      <c r="N38" t="s">
+        <v>213</v>
+      </c>
+      <c r="O38" t="s">
         <v>29</v>
       </c>
-      <c r="M38" t="s">
-        <v>30</v>
-      </c>
-      <c r="N38" t="s">
-        <v>191</v>
-      </c>
-      <c r="O38" t="s">
-        <v>32</v>
-      </c>
       <c r="P38" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="Q38" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="R38" t="s">
-        <v>233</v>
+        <v>136</v>
       </c>
       <c r="S38" t="s">
-        <v>36</v>
-      </c>
-      <c r="T38" t="s">
-        <v>152</v>
-      </c>
-      <c r="U38" t="s">
-        <v>153</v>
+        <v>137</v>
+      </c>
+      <c r="U38" t="b">
+        <v>1</v>
+      </c>
+      <c r="V38" t="s">
+        <v>323</v>
       </c>
       <c r="W38" t="b">
-        <v>1</v>
-      </c>
-      <c r="X38" t="s">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="B39">
         <v>220463</v>
@@ -4574,57 +4415,54 @@
         <v>5867</v>
       </c>
       <c r="H39" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="I39" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J39" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="K39" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L39" t="s">
+        <v>26</v>
+      </c>
+      <c r="M39" t="s">
+        <v>27</v>
+      </c>
+      <c r="N39" t="s">
+        <v>217</v>
+      </c>
+      <c r="O39" t="s">
         <v>29</v>
       </c>
-      <c r="M39" t="s">
-        <v>30</v>
-      </c>
-      <c r="N39" t="s">
-        <v>87</v>
-      </c>
-      <c r="O39" t="s">
-        <v>32</v>
-      </c>
-      <c r="P39" t="s">
-        <v>236</v>
+      <c r="P39" s="1" t="s">
+        <v>218</v>
       </c>
       <c r="Q39" t="s">
-        <v>34</v>
-      </c>
-      <c r="R39" s="1" t="s">
-        <v>237</v>
+        <v>31</v>
+      </c>
+      <c r="R39" t="s">
+        <v>128</v>
       </c>
       <c r="S39" t="s">
-        <v>36</v>
-      </c>
-      <c r="T39" t="s">
-        <v>143</v>
-      </c>
-      <c r="U39" t="s">
-        <v>49</v>
+        <v>41</v>
+      </c>
+      <c r="U39" t="b">
+        <v>0</v>
       </c>
       <c r="W39" t="b">
         <v>1</v>
       </c>
       <c r="X39" t="s">
-        <v>39</v>
+        <v>325</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="B40">
         <v>220454</v>
@@ -4645,57 +4483,54 @@
         <v>5875</v>
       </c>
       <c r="H40" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="I40" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="J40" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="K40" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L40" t="s">
+        <v>26</v>
+      </c>
+      <c r="M40" t="s">
+        <v>27</v>
+      </c>
+      <c r="N40" t="s">
+        <v>221</v>
+      </c>
+      <c r="O40" t="s">
         <v>29</v>
       </c>
-      <c r="M40" t="s">
-        <v>30</v>
-      </c>
-      <c r="N40" t="s">
-        <v>121</v>
-      </c>
-      <c r="O40" t="s">
-        <v>32</v>
-      </c>
       <c r="P40" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="Q40" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="R40" t="s">
-        <v>241</v>
+        <v>33</v>
       </c>
       <c r="S40" t="s">
-        <v>36</v>
-      </c>
-      <c r="T40" t="s">
-        <v>38</v>
-      </c>
-      <c r="U40" t="s">
-        <v>242</v>
+        <v>223</v>
+      </c>
+      <c r="U40" t="b">
+        <v>1</v>
+      </c>
+      <c r="V40" t="s">
+        <v>323</v>
       </c>
       <c r="W40" t="b">
-        <v>1</v>
-      </c>
-      <c r="X40" t="s">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="B41">
         <v>220460</v>
@@ -4716,60 +4551,57 @@
         <v>5878</v>
       </c>
       <c r="H41" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="I41" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="J41" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="K41" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L41" t="s">
+        <v>26</v>
+      </c>
+      <c r="M41" t="s">
+        <v>27</v>
+      </c>
+      <c r="N41" t="s">
+        <v>228</v>
+      </c>
+      <c r="O41" t="s">
         <v>29</v>
       </c>
-      <c r="M41" t="s">
-        <v>30</v>
-      </c>
-      <c r="N41" t="s">
-        <v>247</v>
-      </c>
-      <c r="O41" t="s">
-        <v>32</v>
-      </c>
       <c r="P41" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="Q41" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="R41" t="s">
-        <v>249</v>
+        <v>49</v>
       </c>
       <c r="S41" t="s">
-        <v>36</v>
+        <v>230</v>
       </c>
       <c r="T41" t="s">
-        <v>58</v>
-      </c>
-      <c r="U41" t="s">
-        <v>250</v>
+        <v>41</v>
+      </c>
+      <c r="U41" t="b">
+        <v>1</v>
       </c>
       <c r="V41" t="s">
-        <v>49</v>
+        <v>323</v>
       </c>
       <c r="W41" t="b">
-        <v>1</v>
-      </c>
-      <c r="X41" t="s">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="B42">
         <v>220454</v>
@@ -4790,57 +4622,54 @@
         <v>5881</v>
       </c>
       <c r="H42" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="I42" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="J42" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="K42" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L42" t="s">
+        <v>26</v>
+      </c>
+      <c r="M42" t="s">
+        <v>27</v>
+      </c>
+      <c r="N42" t="s">
+        <v>233</v>
+      </c>
+      <c r="O42" t="s">
         <v>29</v>
       </c>
-      <c r="M42" t="s">
-        <v>30</v>
-      </c>
-      <c r="N42" t="s">
-        <v>121</v>
-      </c>
-      <c r="O42" t="s">
-        <v>32</v>
-      </c>
-      <c r="P42" t="s">
-        <v>253</v>
+      <c r="P42" s="1" t="s">
+        <v>234</v>
       </c>
       <c r="Q42" t="s">
-        <v>34</v>
-      </c>
-      <c r="R42" s="1" t="s">
-        <v>254</v>
+        <v>31</v>
+      </c>
+      <c r="R42" t="s">
+        <v>33</v>
       </c>
       <c r="S42" t="s">
-        <v>36</v>
-      </c>
-      <c r="T42" t="s">
-        <v>38</v>
-      </c>
-      <c r="U42" t="s">
-        <v>242</v>
+        <v>223</v>
+      </c>
+      <c r="U42" t="b">
+        <v>0</v>
       </c>
       <c r="W42" t="b">
         <v>1</v>
       </c>
       <c r="X42" t="s">
-        <v>39</v>
+        <v>325</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="B43">
         <v>220465</v>
@@ -4861,57 +4690,54 @@
         <v>5919</v>
       </c>
       <c r="H43" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="I43" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="J43" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
       <c r="K43" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L43" t="s">
+        <v>26</v>
+      </c>
+      <c r="M43" t="s">
+        <v>27</v>
+      </c>
+      <c r="N43" t="s">
+        <v>239</v>
+      </c>
+      <c r="O43" t="s">
         <v>29</v>
       </c>
-      <c r="M43" t="s">
-        <v>30</v>
-      </c>
-      <c r="N43" t="s">
-        <v>259</v>
-      </c>
-      <c r="O43" t="s">
-        <v>32</v>
-      </c>
       <c r="P43" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="Q43" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="R43" t="s">
-        <v>261</v>
+        <v>190</v>
       </c>
       <c r="S43" t="s">
-        <v>36</v>
-      </c>
-      <c r="T43" t="s">
-        <v>209</v>
-      </c>
-      <c r="U43" t="s">
-        <v>218</v>
+        <v>199</v>
+      </c>
+      <c r="U43" t="b">
+        <v>1</v>
+      </c>
+      <c r="V43" t="s">
+        <v>323</v>
       </c>
       <c r="W43" t="b">
-        <v>1</v>
-      </c>
-      <c r="X43" t="s">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>262</v>
+        <v>241</v>
       </c>
       <c r="B44">
         <v>220463</v>
@@ -4932,57 +4758,54 @@
         <v>5928</v>
       </c>
       <c r="H44" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="I44" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J44" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
       <c r="K44" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L44" t="s">
+        <v>26</v>
+      </c>
+      <c r="M44" t="s">
+        <v>27</v>
+      </c>
+      <c r="N44" t="s">
+        <v>243</v>
+      </c>
+      <c r="O44" t="s">
         <v>29</v>
       </c>
-      <c r="M44" t="s">
-        <v>30</v>
-      </c>
-      <c r="N44" t="s">
-        <v>87</v>
-      </c>
-      <c r="O44" t="s">
-        <v>32</v>
-      </c>
       <c r="P44" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="Q44" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="R44" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="S44" t="s">
-        <v>36</v>
-      </c>
-      <c r="T44" t="s">
-        <v>266</v>
-      </c>
-      <c r="U44" t="s">
-        <v>116</v>
+        <v>103</v>
+      </c>
+      <c r="U44" t="b">
+        <v>1</v>
+      </c>
+      <c r="V44" t="s">
+        <v>323</v>
       </c>
       <c r="W44" t="b">
-        <v>1</v>
-      </c>
-      <c r="X44" t="s">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="B45">
         <v>220456</v>
@@ -5003,57 +4826,54 @@
         <v>5931</v>
       </c>
       <c r="H45" t="s">
-        <v>268</v>
+        <v>247</v>
       </c>
       <c r="I45" t="s">
-        <v>269</v>
+        <v>248</v>
       </c>
       <c r="J45" t="s">
-        <v>270</v>
+        <v>249</v>
       </c>
       <c r="K45" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L45" t="s">
+        <v>26</v>
+      </c>
+      <c r="M45" t="s">
+        <v>27</v>
+      </c>
+      <c r="N45" t="s">
+        <v>250</v>
+      </c>
+      <c r="O45" t="s">
         <v>29</v>
       </c>
-      <c r="M45" t="s">
-        <v>30</v>
-      </c>
-      <c r="N45" t="s">
-        <v>271</v>
-      </c>
-      <c r="O45" t="s">
-        <v>32</v>
-      </c>
       <c r="P45" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="Q45" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="R45" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
       <c r="S45" t="s">
-        <v>36</v>
-      </c>
-      <c r="T45" t="s">
-        <v>274</v>
-      </c>
-      <c r="U45" t="s">
-        <v>152</v>
+        <v>136</v>
+      </c>
+      <c r="U45" t="b">
+        <v>1</v>
+      </c>
+      <c r="V45" t="s">
+        <v>323</v>
       </c>
       <c r="W45" t="b">
-        <v>1</v>
-      </c>
-      <c r="X45" t="s">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="B46">
         <v>220463</v>
@@ -5074,57 +4894,54 @@
         <v>5948</v>
       </c>
       <c r="H46" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="I46" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J46" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
       <c r="K46" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L46" t="s">
+        <v>26</v>
+      </c>
+      <c r="M46" t="s">
+        <v>27</v>
+      </c>
+      <c r="N46" t="s">
+        <v>255</v>
+      </c>
+      <c r="O46" t="s">
         <v>29</v>
       </c>
-      <c r="M46" t="s">
-        <v>30</v>
-      </c>
-      <c r="N46" t="s">
-        <v>87</v>
-      </c>
-      <c r="O46" t="s">
-        <v>32</v>
-      </c>
-      <c r="P46" t="s">
-        <v>277</v>
+      <c r="P46" s="1" t="s">
+        <v>256</v>
       </c>
       <c r="Q46" t="s">
-        <v>34</v>
-      </c>
-      <c r="R46" s="1" t="s">
-        <v>278</v>
+        <v>31</v>
+      </c>
+      <c r="R46" t="s">
+        <v>245</v>
       </c>
       <c r="S46" t="s">
-        <v>36</v>
-      </c>
-      <c r="T46" t="s">
-        <v>266</v>
-      </c>
-      <c r="U46" t="s">
-        <v>279</v>
+        <v>257</v>
+      </c>
+      <c r="U46" t="b">
+        <v>0</v>
       </c>
       <c r="W46" t="b">
         <v>1</v>
       </c>
       <c r="X46" t="s">
-        <v>39</v>
+        <v>325</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="B47">
         <v>220459</v>
@@ -5145,57 +4962,54 @@
         <v>5951</v>
       </c>
       <c r="H47" t="s">
+        <v>22</v>
+      </c>
+      <c r="I47" t="s">
+        <v>23</v>
+      </c>
+      <c r="J47" t="s">
+        <v>259</v>
+      </c>
+      <c r="K47" t="s">
         <v>25</v>
       </c>
-      <c r="I47" t="s">
+      <c r="L47" t="s">
         <v>26</v>
       </c>
-      <c r="J47" t="s">
-        <v>281</v>
-      </c>
-      <c r="K47" t="s">
-        <v>28</v>
-      </c>
-      <c r="L47" t="s">
+      <c r="M47" t="s">
+        <v>27</v>
+      </c>
+      <c r="N47" t="s">
+        <v>260</v>
+      </c>
+      <c r="O47" t="s">
         <v>29</v>
       </c>
-      <c r="M47" t="s">
-        <v>30</v>
-      </c>
-      <c r="N47" t="s">
+      <c r="P47" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q47" t="s">
         <v>31</v>
       </c>
-      <c r="O47" t="s">
+      <c r="R47" t="s">
         <v>32</v>
       </c>
-      <c r="P47" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>34</v>
-      </c>
-      <c r="R47" t="s">
-        <v>283</v>
-      </c>
       <c r="S47" t="s">
-        <v>36</v>
-      </c>
-      <c r="T47" t="s">
-        <v>37</v>
-      </c>
-      <c r="U47" t="s">
-        <v>38</v>
+        <v>33</v>
+      </c>
+      <c r="U47" t="b">
+        <v>1</v>
+      </c>
+      <c r="V47" t="s">
+        <v>323</v>
       </c>
       <c r="W47" t="b">
-        <v>1</v>
-      </c>
-      <c r="X47" t="s">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="B48">
         <v>220463</v>
@@ -5216,57 +5030,54 @@
         <v>5954</v>
       </c>
       <c r="H48" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="I48" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J48" t="s">
-        <v>285</v>
+        <v>263</v>
       </c>
       <c r="K48" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L48" t="s">
+        <v>26</v>
+      </c>
+      <c r="M48" t="s">
+        <v>27</v>
+      </c>
+      <c r="N48" t="s">
+        <v>264</v>
+      </c>
+      <c r="O48" t="s">
         <v>29</v>
       </c>
-      <c r="M48" t="s">
-        <v>30</v>
-      </c>
-      <c r="N48" t="s">
-        <v>87</v>
-      </c>
-      <c r="O48" t="s">
-        <v>32</v>
-      </c>
-      <c r="P48" t="s">
-        <v>286</v>
+      <c r="P48" s="1" t="s">
+        <v>265</v>
       </c>
       <c r="Q48" t="s">
-        <v>34</v>
-      </c>
-      <c r="R48" s="1" t="s">
-        <v>287</v>
+        <v>31</v>
+      </c>
+      <c r="R48" t="s">
+        <v>245</v>
       </c>
       <c r="S48" t="s">
-        <v>36</v>
-      </c>
-      <c r="T48" t="s">
-        <v>266</v>
-      </c>
-      <c r="U48" t="s">
-        <v>279</v>
+        <v>257</v>
+      </c>
+      <c r="U48" t="b">
+        <v>0</v>
       </c>
       <c r="W48" t="b">
         <v>1</v>
       </c>
       <c r="X48" t="s">
-        <v>39</v>
+        <v>325</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>288</v>
+        <v>266</v>
       </c>
       <c r="B49">
         <v>220459</v>
@@ -5287,57 +5098,54 @@
         <v>5968</v>
       </c>
       <c r="H49" t="s">
+        <v>22</v>
+      </c>
+      <c r="I49" t="s">
+        <v>23</v>
+      </c>
+      <c r="J49" t="s">
+        <v>267</v>
+      </c>
+      <c r="K49" t="s">
         <v>25</v>
       </c>
-      <c r="I49" t="s">
+      <c r="L49" t="s">
         <v>26</v>
       </c>
-      <c r="J49" t="s">
-        <v>289</v>
-      </c>
-      <c r="K49" t="s">
-        <v>28</v>
-      </c>
-      <c r="L49" t="s">
+      <c r="M49" t="s">
+        <v>27</v>
+      </c>
+      <c r="N49" t="s">
+        <v>268</v>
+      </c>
+      <c r="O49" t="s">
         <v>29</v>
       </c>
-      <c r="M49" t="s">
-        <v>30</v>
-      </c>
-      <c r="N49" t="s">
+      <c r="P49" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q49" t="s">
         <v>31</v>
       </c>
-      <c r="O49" t="s">
+      <c r="R49" t="s">
         <v>32</v>
       </c>
-      <c r="P49" t="s">
-        <v>290</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>34</v>
-      </c>
-      <c r="R49" t="s">
-        <v>291</v>
-      </c>
       <c r="S49" t="s">
-        <v>36</v>
-      </c>
-      <c r="T49" t="s">
-        <v>37</v>
-      </c>
-      <c r="U49" t="s">
-        <v>38</v>
+        <v>33</v>
+      </c>
+      <c r="U49" t="b">
+        <v>1</v>
+      </c>
+      <c r="V49" t="s">
+        <v>323</v>
       </c>
       <c r="W49" t="b">
-        <v>1</v>
-      </c>
-      <c r="X49" t="s">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="B50">
         <v>220464</v>
@@ -5358,57 +5166,54 @@
         <v>5984</v>
       </c>
       <c r="H50" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="I50" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="J50" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
       <c r="K50" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L50" t="s">
+        <v>26</v>
+      </c>
+      <c r="M50" t="s">
+        <v>27</v>
+      </c>
+      <c r="N50" t="s">
+        <v>272</v>
+      </c>
+      <c r="O50" t="s">
         <v>29</v>
       </c>
-      <c r="M50" t="s">
-        <v>30</v>
-      </c>
-      <c r="N50" t="s">
-        <v>149</v>
-      </c>
-      <c r="O50" t="s">
-        <v>32</v>
-      </c>
-      <c r="P50" t="s">
-        <v>294</v>
+      <c r="P50" s="1" t="s">
+        <v>273</v>
       </c>
       <c r="Q50" t="s">
-        <v>34</v>
-      </c>
-      <c r="R50" s="1" t="s">
-        <v>295</v>
+        <v>31</v>
+      </c>
+      <c r="R50" t="s">
+        <v>33</v>
       </c>
       <c r="S50" t="s">
-        <v>36</v>
-      </c>
-      <c r="T50" t="s">
-        <v>38</v>
-      </c>
-      <c r="U50" t="s">
-        <v>90</v>
+        <v>78</v>
+      </c>
+      <c r="U50" t="b">
+        <v>0</v>
       </c>
       <c r="W50" t="b">
         <v>1</v>
       </c>
       <c r="X50" t="s">
-        <v>39</v>
+        <v>325</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="B51">
         <v>220462</v>
@@ -5429,57 +5234,54 @@
         <v>5985</v>
       </c>
       <c r="H51" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="I51" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="J51" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
       <c r="K51" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L51" t="s">
+        <v>26</v>
+      </c>
+      <c r="M51" t="s">
+        <v>27</v>
+      </c>
+      <c r="N51" t="s">
+        <v>278</v>
+      </c>
+      <c r="O51" t="s">
         <v>29</v>
       </c>
-      <c r="M51" t="s">
-        <v>30</v>
-      </c>
-      <c r="N51" t="s">
-        <v>300</v>
-      </c>
-      <c r="O51" t="s">
-        <v>32</v>
-      </c>
       <c r="P51" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="Q51" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="R51" t="s">
-        <v>302</v>
+        <v>190</v>
       </c>
       <c r="S51" t="s">
-        <v>36</v>
-      </c>
-      <c r="T51" t="s">
-        <v>209</v>
-      </c>
-      <c r="U51" t="s">
-        <v>279</v>
+        <v>257</v>
+      </c>
+      <c r="U51" t="b">
+        <v>1</v>
+      </c>
+      <c r="V51" t="s">
+        <v>323</v>
       </c>
       <c r="W51" t="b">
-        <v>1</v>
-      </c>
-      <c r="X51" t="s">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>303</v>
+        <v>280</v>
       </c>
       <c r="B52">
         <v>220464</v>
@@ -5500,57 +5302,54 @@
         <v>5988</v>
       </c>
       <c r="H52" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="I52" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="J52" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
       <c r="K52" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L52" t="s">
+        <v>26</v>
+      </c>
+      <c r="M52" t="s">
+        <v>27</v>
+      </c>
+      <c r="N52" t="s">
+        <v>282</v>
+      </c>
+      <c r="O52" t="s">
         <v>29</v>
       </c>
-      <c r="M52" t="s">
-        <v>30</v>
-      </c>
-      <c r="N52" t="s">
-        <v>149</v>
-      </c>
-      <c r="O52" t="s">
-        <v>32</v>
-      </c>
       <c r="P52" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
       <c r="Q52" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="R52" t="s">
-        <v>306</v>
+        <v>33</v>
       </c>
       <c r="S52" t="s">
-        <v>36</v>
-      </c>
-      <c r="T52" t="s">
-        <v>38</v>
-      </c>
-      <c r="U52" t="s">
-        <v>90</v>
+        <v>78</v>
+      </c>
+      <c r="U52" t="b">
+        <v>1</v>
+      </c>
+      <c r="V52" t="s">
+        <v>323</v>
       </c>
       <c r="W52" t="b">
-        <v>1</v>
-      </c>
-      <c r="X52" t="s">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>307</v>
+        <v>284</v>
       </c>
       <c r="B53">
         <v>220456</v>
@@ -5571,57 +5370,54 @@
         <v>5991</v>
       </c>
       <c r="H53" t="s">
-        <v>268</v>
+        <v>247</v>
       </c>
       <c r="I53" t="s">
-        <v>269</v>
+        <v>248</v>
       </c>
       <c r="J53" t="s">
-        <v>308</v>
+        <v>285</v>
       </c>
       <c r="K53" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L53" t="s">
+        <v>26</v>
+      </c>
+      <c r="M53" t="s">
+        <v>27</v>
+      </c>
+      <c r="N53" t="s">
+        <v>286</v>
+      </c>
+      <c r="O53" t="s">
         <v>29</v>
       </c>
-      <c r="M53" t="s">
-        <v>30</v>
-      </c>
-      <c r="N53" t="s">
-        <v>271</v>
-      </c>
-      <c r="O53" t="s">
-        <v>32</v>
-      </c>
-      <c r="P53" t="s">
-        <v>309</v>
+      <c r="P53" s="1" t="s">
+        <v>287</v>
       </c>
       <c r="Q53" t="s">
-        <v>34</v>
-      </c>
-      <c r="R53" s="1" t="s">
-        <v>310</v>
+        <v>31</v>
+      </c>
+      <c r="R53" t="s">
+        <v>33</v>
       </c>
       <c r="S53" t="s">
-        <v>36</v>
-      </c>
-      <c r="T53" t="s">
-        <v>38</v>
-      </c>
-      <c r="U53" t="s">
-        <v>250</v>
+        <v>230</v>
+      </c>
+      <c r="U53" t="b">
+        <v>0</v>
       </c>
       <c r="W53" t="b">
         <v>1</v>
       </c>
       <c r="X53" t="s">
-        <v>39</v>
+        <v>325</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>311</v>
+        <v>288</v>
       </c>
       <c r="B54">
         <v>220466</v>
@@ -5642,57 +5438,54 @@
         <v>6005</v>
       </c>
       <c r="H54" t="s">
-        <v>312</v>
+        <v>289</v>
       </c>
       <c r="I54" t="s">
-        <v>313</v>
+        <v>290</v>
       </c>
       <c r="J54" t="s">
-        <v>314</v>
+        <v>291</v>
       </c>
       <c r="K54" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L54" t="s">
+        <v>26</v>
+      </c>
+      <c r="M54" t="s">
+        <v>27</v>
+      </c>
+      <c r="N54" t="s">
+        <v>292</v>
+      </c>
+      <c r="O54" t="s">
         <v>29</v>
       </c>
-      <c r="M54" t="s">
-        <v>30</v>
-      </c>
-      <c r="N54" t="s">
-        <v>315</v>
-      </c>
-      <c r="O54" t="s">
-        <v>32</v>
-      </c>
-      <c r="P54" t="s">
-        <v>316</v>
+      <c r="P54" s="1" t="s">
+        <v>293</v>
       </c>
       <c r="Q54" t="s">
-        <v>34</v>
-      </c>
-      <c r="R54" s="1" t="s">
-        <v>317</v>
+        <v>31</v>
+      </c>
+      <c r="R54" t="s">
+        <v>294</v>
       </c>
       <c r="S54" t="s">
-        <v>36</v>
-      </c>
-      <c r="T54" t="s">
-        <v>318</v>
-      </c>
-      <c r="U54" t="s">
-        <v>49</v>
+        <v>41</v>
+      </c>
+      <c r="U54" t="b">
+        <v>0</v>
       </c>
       <c r="W54" t="b">
         <v>1</v>
       </c>
       <c r="X54" t="s">
-        <v>39</v>
+        <v>325</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>319</v>
+        <v>295</v>
       </c>
       <c r="B55">
         <v>220466</v>
@@ -5713,57 +5506,54 @@
         <v>6014</v>
       </c>
       <c r="H55" t="s">
-        <v>312</v>
+        <v>289</v>
       </c>
       <c r="I55" t="s">
-        <v>313</v>
+        <v>290</v>
       </c>
       <c r="J55" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="K55" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L55" t="s">
+        <v>26</v>
+      </c>
+      <c r="M55" t="s">
+        <v>27</v>
+      </c>
+      <c r="N55" t="s">
+        <v>297</v>
+      </c>
+      <c r="O55" t="s">
         <v>29</v>
       </c>
-      <c r="M55" t="s">
-        <v>30</v>
-      </c>
-      <c r="N55" t="s">
-        <v>315</v>
-      </c>
-      <c r="O55" t="s">
-        <v>32</v>
-      </c>
-      <c r="P55" t="s">
-        <v>321</v>
+      <c r="P55" s="1" t="s">
+        <v>298</v>
       </c>
       <c r="Q55" t="s">
-        <v>34</v>
-      </c>
-      <c r="R55" s="1" t="s">
-        <v>322</v>
+        <v>31</v>
+      </c>
+      <c r="R55" t="s">
+        <v>294</v>
       </c>
       <c r="S55" t="s">
-        <v>36</v>
-      </c>
-      <c r="T55" t="s">
-        <v>318</v>
-      </c>
-      <c r="U55" t="s">
-        <v>49</v>
+        <v>41</v>
+      </c>
+      <c r="U55" t="b">
+        <v>0</v>
       </c>
       <c r="W55" t="b">
         <v>1</v>
       </c>
       <c r="X55" t="s">
-        <v>39</v>
+        <v>325</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="B56">
         <v>220466</v>
@@ -5784,57 +5574,54 @@
         <v>6015</v>
       </c>
       <c r="H56" t="s">
-        <v>312</v>
+        <v>289</v>
       </c>
       <c r="I56" t="s">
-        <v>313</v>
+        <v>290</v>
       </c>
       <c r="J56" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
       <c r="K56" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L56" t="s">
+        <v>26</v>
+      </c>
+      <c r="M56" t="s">
+        <v>27</v>
+      </c>
+      <c r="N56" t="s">
+        <v>301</v>
+      </c>
+      <c r="O56" t="s">
         <v>29</v>
       </c>
-      <c r="M56" t="s">
-        <v>30</v>
-      </c>
-      <c r="N56" t="s">
-        <v>315</v>
-      </c>
-      <c r="O56" t="s">
-        <v>32</v>
-      </c>
-      <c r="P56" t="s">
-        <v>325</v>
+      <c r="P56" s="1" t="s">
+        <v>302</v>
       </c>
       <c r="Q56" t="s">
-        <v>34</v>
-      </c>
-      <c r="R56" s="1" t="s">
-        <v>326</v>
+        <v>31</v>
+      </c>
+      <c r="R56" t="s">
+        <v>294</v>
       </c>
       <c r="S56" t="s">
-        <v>36</v>
-      </c>
-      <c r="T56" t="s">
-        <v>318</v>
-      </c>
-      <c r="U56" t="s">
-        <v>49</v>
+        <v>41</v>
+      </c>
+      <c r="U56" t="b">
+        <v>0</v>
       </c>
       <c r="W56" t="b">
         <v>1</v>
       </c>
       <c r="X56" t="s">
-        <v>39</v>
+        <v>325</v>
       </c>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="B57">
         <v>220466</v>
@@ -5855,57 +5642,54 @@
         <v>6023</v>
       </c>
       <c r="H57" t="s">
-        <v>312</v>
+        <v>289</v>
       </c>
       <c r="I57" t="s">
-        <v>313</v>
+        <v>290</v>
       </c>
       <c r="J57" t="s">
-        <v>328</v>
+        <v>304</v>
       </c>
       <c r="K57" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L57" t="s">
+        <v>26</v>
+      </c>
+      <c r="M57" t="s">
+        <v>27</v>
+      </c>
+      <c r="N57" t="s">
+        <v>305</v>
+      </c>
+      <c r="O57" t="s">
         <v>29</v>
       </c>
-      <c r="M57" t="s">
-        <v>30</v>
-      </c>
-      <c r="N57" t="s">
-        <v>315</v>
-      </c>
-      <c r="O57" t="s">
-        <v>32</v>
-      </c>
-      <c r="P57" t="s">
-        <v>329</v>
+      <c r="P57" s="1" t="s">
+        <v>306</v>
       </c>
       <c r="Q57" t="s">
-        <v>34</v>
-      </c>
-      <c r="R57" s="1" t="s">
-        <v>330</v>
+        <v>31</v>
+      </c>
+      <c r="R57" t="s">
+        <v>294</v>
       </c>
       <c r="S57" t="s">
-        <v>36</v>
-      </c>
-      <c r="T57" t="s">
-        <v>318</v>
-      </c>
-      <c r="U57" t="s">
-        <v>49</v>
+        <v>41</v>
+      </c>
+      <c r="U57" t="b">
+        <v>0</v>
       </c>
       <c r="W57" t="b">
         <v>1</v>
       </c>
       <c r="X57" t="s">
-        <v>39</v>
+        <v>325</v>
       </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
       <c r="B58">
         <v>220467</v>
@@ -5926,57 +5710,54 @@
         <v>6032</v>
       </c>
       <c r="H58" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="I58" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="J58" t="s">
-        <v>332</v>
+        <v>308</v>
       </c>
       <c r="K58" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L58" t="s">
+        <v>26</v>
+      </c>
+      <c r="M58" t="s">
+        <v>27</v>
+      </c>
+      <c r="N58" t="s">
+        <v>309</v>
+      </c>
+      <c r="O58" t="s">
         <v>29</v>
       </c>
-      <c r="M58" t="s">
-        <v>30</v>
-      </c>
-      <c r="N58" t="s">
-        <v>76</v>
-      </c>
-      <c r="O58" t="s">
-        <v>32</v>
-      </c>
-      <c r="P58" t="s">
-        <v>333</v>
+      <c r="P58" s="1" t="s">
+        <v>310</v>
       </c>
       <c r="Q58" t="s">
-        <v>34</v>
-      </c>
-      <c r="R58" s="1" t="s">
-        <v>334</v>
+        <v>31</v>
+      </c>
+      <c r="R58" t="s">
+        <v>49</v>
       </c>
       <c r="S58" t="s">
-        <v>36</v>
-      </c>
-      <c r="T58" t="s">
-        <v>58</v>
-      </c>
-      <c r="U58" t="s">
-        <v>335</v>
+        <v>311</v>
+      </c>
+      <c r="U58" t="b">
+        <v>0</v>
       </c>
       <c r="W58" t="b">
         <v>1</v>
       </c>
       <c r="X58" t="s">
-        <v>39</v>
+        <v>325</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>336</v>
+        <v>312</v>
       </c>
       <c r="B59">
         <v>220467</v>
@@ -5997,57 +5778,54 @@
         <v>6038</v>
       </c>
       <c r="H59" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="I59" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="J59" t="s">
-        <v>337</v>
+        <v>313</v>
       </c>
       <c r="K59" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L59" t="s">
+        <v>26</v>
+      </c>
+      <c r="M59" t="s">
+        <v>27</v>
+      </c>
+      <c r="N59" t="s">
+        <v>314</v>
+      </c>
+      <c r="O59" t="s">
         <v>29</v>
       </c>
-      <c r="M59" t="s">
-        <v>30</v>
-      </c>
-      <c r="N59" t="s">
-        <v>76</v>
-      </c>
-      <c r="O59" t="s">
-        <v>32</v>
-      </c>
-      <c r="P59" t="s">
-        <v>338</v>
+      <c r="P59" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="Q59" t="s">
-        <v>34</v>
-      </c>
-      <c r="R59" s="1" t="s">
-        <v>339</v>
+        <v>31</v>
+      </c>
+      <c r="R59" t="s">
+        <v>311</v>
       </c>
       <c r="S59" t="s">
-        <v>36</v>
-      </c>
-      <c r="T59" t="s">
-        <v>335</v>
-      </c>
-      <c r="U59" t="s">
-        <v>218</v>
+        <v>199</v>
+      </c>
+      <c r="U59" t="b">
+        <v>0</v>
       </c>
       <c r="W59" t="b">
         <v>1</v>
       </c>
       <c r="X59" t="s">
-        <v>39</v>
+        <v>325</v>
       </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>340</v>
+        <v>316</v>
       </c>
       <c r="B60">
         <v>220457</v>
@@ -6068,55 +5846,59 @@
         <v>6040</v>
       </c>
       <c r="H60" t="s">
-        <v>341</v>
+        <v>317</v>
       </c>
       <c r="I60" t="s">
-        <v>342</v>
+        <v>318</v>
       </c>
       <c r="J60" t="s">
-        <v>343</v>
+        <v>319</v>
       </c>
       <c r="K60" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L60" t="s">
+        <v>26</v>
+      </c>
+      <c r="M60" t="s">
+        <v>27</v>
+      </c>
+      <c r="N60" t="s">
+        <v>320</v>
+      </c>
+      <c r="O60" t="s">
         <v>29</v>
       </c>
-      <c r="M60" t="s">
-        <v>30</v>
-      </c>
-      <c r="N60" t="s">
-        <v>344</v>
-      </c>
-      <c r="O60" t="s">
-        <v>32</v>
-      </c>
       <c r="P60" t="s">
-        <v>345</v>
+        <v>321</v>
       </c>
       <c r="Q60" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="R60" t="s">
-        <v>346</v>
+        <v>245</v>
       </c>
       <c r="S60" t="s">
-        <v>36</v>
-      </c>
-      <c r="T60" t="s">
-        <v>266</v>
-      </c>
-      <c r="U60" t="s">
-        <v>347</v>
+        <v>322</v>
+      </c>
+      <c r="U60" t="b">
+        <v>1</v>
+      </c>
+      <c r="V60" t="s">
+        <v>323</v>
       </c>
       <c r="W60" t="b">
-        <v>1</v>
-      </c>
-      <c r="X60" t="s">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:X60" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="23">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>